--- a/Code/Results/Cases/Case_6_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17633947922824</v>
+        <v>14.1712931743233</v>
       </c>
       <c r="C2">
-        <v>14.80756964829797</v>
+        <v>8.337929653527544</v>
       </c>
       <c r="D2">
-        <v>3.77625335380731</v>
+        <v>4.587042237890809</v>
       </c>
       <c r="E2">
-        <v>30.01380808420395</v>
+        <v>29.45987919299319</v>
       </c>
       <c r="F2">
-        <v>35.9171394840295</v>
+        <v>19.49005642205439</v>
       </c>
       <c r="G2">
-        <v>2.048990241545996</v>
+        <v>2.082787385399959</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.74465773192658</v>
+        <v>12.74489762438207</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.06010328952955</v>
+        <v>15.56629514457019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.66446262398892</v>
+        <v>13.25719021918139</v>
       </c>
       <c r="C3">
-        <v>13.80365468998385</v>
+        <v>7.970979486800879</v>
       </c>
       <c r="D3">
-        <v>3.844084466960384</v>
+        <v>4.482113766979353</v>
       </c>
       <c r="E3">
-        <v>27.73883660506943</v>
+        <v>27.3258591097262</v>
       </c>
       <c r="F3">
-        <v>33.96244565370265</v>
+        <v>19.0628240296881</v>
       </c>
       <c r="G3">
-        <v>2.06083730083607</v>
+        <v>2.08854468056302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.45561330409878</v>
+        <v>12.03101636907703</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.6863288515066</v>
+        <v>15.47872317464013</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69057916553836</v>
+        <v>12.66457706553702</v>
       </c>
       <c r="C4">
-        <v>13.15878533449536</v>
+        <v>7.737131376175883</v>
       </c>
       <c r="D4">
-        <v>3.887858891856129</v>
+        <v>4.415925172118809</v>
       </c>
       <c r="E4">
-        <v>26.28756362914264</v>
+        <v>25.95258672656193</v>
       </c>
       <c r="F4">
-        <v>32.75382708533577</v>
+        <v>18.81838909808279</v>
       </c>
       <c r="G4">
-        <v>2.068221608242355</v>
+        <v>2.092173027953769</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.6263079511347</v>
+        <v>11.57116325032444</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.84529927650232</v>
+        <v>15.44223782793964</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28199795106563</v>
+        <v>12.41517178718991</v>
       </c>
       <c r="C5">
-        <v>12.88868195249457</v>
+        <v>7.639754317620069</v>
       </c>
       <c r="D5">
-        <v>3.906180309304011</v>
+        <v>4.38853319912312</v>
       </c>
       <c r="E5">
-        <v>25.68182729550485</v>
+        <v>25.37682506730913</v>
       </c>
       <c r="F5">
-        <v>32.25943895331621</v>
+        <v>18.72325609719793</v>
       </c>
       <c r="G5">
-        <v>2.071262731918376</v>
+        <v>2.093676015676724</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.2786488140037</v>
+        <v>11.37840889601193</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.50334561379772</v>
+        <v>15.43152523921374</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21343873047698</v>
+        <v>12.37327984107308</v>
       </c>
       <c r="C6">
-        <v>12.84338561289472</v>
+        <v>7.623461344991359</v>
       </c>
       <c r="D6">
-        <v>3.909250418403379</v>
+        <v>4.383960157885832</v>
       </c>
       <c r="E6">
-        <v>25.58036213670856</v>
+        <v>25.28023672388817</v>
       </c>
       <c r="F6">
-        <v>32.17724343843248</v>
+        <v>18.7077287461617</v>
       </c>
       <c r="G6">
-        <v>2.071769754602584</v>
+        <v>2.093927085989628</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.22032844069273</v>
+        <v>11.34608036735518</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.44661708651998</v>
+        <v>15.42999174590033</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68511665338949</v>
+        <v>12.66124555778915</v>
       </c>
       <c r="C7">
-        <v>13.15517243004871</v>
+        <v>7.735826449465747</v>
       </c>
       <c r="D7">
-        <v>3.888104086184951</v>
+        <v>4.415557421099548</v>
       </c>
       <c r="E7">
-        <v>26.27945328466109</v>
+        <v>25.94488755448382</v>
       </c>
       <c r="F7">
-        <v>32.7471667182643</v>
+        <v>18.81708801712669</v>
       </c>
       <c r="G7">
-        <v>2.068262487191291</v>
+        <v>2.092193197754869</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.62165886119908</v>
+        <v>11.56858531753139</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.84068418300197</v>
+        <v>15.44207678389921</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66434630434646</v>
+        <v>13.8625977787224</v>
       </c>
       <c r="C8">
-        <v>14.46722480255887</v>
+        <v>8.21321261704988</v>
       </c>
       <c r="D8">
-        <v>3.799165899985456</v>
+        <v>4.551242250304694</v>
       </c>
       <c r="E8">
-        <v>29.24028527163151</v>
+        <v>28.73694928777177</v>
       </c>
       <c r="F8">
-        <v>35.24501934358177</v>
+        <v>19.33902541047091</v>
       </c>
       <c r="G8">
-        <v>2.053054950721017</v>
+        <v>2.08475370852774</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.30791881320651</v>
+        <v>12.50324475174457</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.58597620742291</v>
+        <v>15.53239962398096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19661300689707</v>
+        <v>15.9714170642414</v>
       </c>
       <c r="C9">
-        <v>16.82279310222429</v>
+        <v>9.079410551631014</v>
       </c>
       <c r="D9">
-        <v>3.644608833478482</v>
+        <v>4.802384985017836</v>
       </c>
       <c r="E9">
-        <v>34.64789649589373</v>
+        <v>33.72736967677534</v>
       </c>
       <c r="F9">
-        <v>40.07305664087945</v>
+        <v>20.50486588838166</v>
       </c>
       <c r="G9">
-        <v>2.02388754949909</v>
+        <v>2.070859944250407</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.324913285285</v>
+        <v>14.16398029981447</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.02653663166758</v>
+        <v>15.85494140417815</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59915462142483</v>
+        <v>17.37316341944418</v>
       </c>
       <c r="C10">
-        <v>18.43510622235042</v>
+        <v>9.671087043072893</v>
       </c>
       <c r="D10">
-        <v>3.548645712431817</v>
+        <v>4.976628607900862</v>
       </c>
       <c r="E10">
-        <v>38.43274207477243</v>
+        <v>37.12083461977185</v>
       </c>
       <c r="F10">
-        <v>43.58537528172607</v>
+        <v>21.44832885818647</v>
       </c>
       <c r="G10">
-        <v>2.002498845781801</v>
+        <v>2.061006708197146</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.38183622230748</v>
+        <v>15.27864543497708</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.5719682691333</v>
+        <v>16.19150222089548</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.65567769591314</v>
+        <v>17.9796036134516</v>
       </c>
       <c r="C11">
-        <v>19.14687330920167</v>
+        <v>9.93033414407777</v>
       </c>
       <c r="D11">
-        <v>3.51054403131207</v>
+        <v>5.053449659438804</v>
       </c>
       <c r="E11">
-        <v>40.12910133815191</v>
+        <v>38.61092559425666</v>
       </c>
       <c r="F11">
-        <v>45.18128366027866</v>
+        <v>21.89643393575608</v>
       </c>
       <c r="G11">
-        <v>1.992678532469376</v>
+        <v>2.056584127486635</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.28756403086779</v>
+        <v>15.76301468908267</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.73809100472076</v>
+        <v>16.36847484867886</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05105918197585</v>
+        <v>18.20483149316467</v>
       </c>
       <c r="C12">
-        <v>19.41369389946076</v>
+        <v>10.02707462975615</v>
       </c>
       <c r="D12">
-        <v>3.497110864902479</v>
+        <v>5.082172205652792</v>
       </c>
       <c r="E12">
-        <v>40.76943179506377</v>
+        <v>39.1679964025378</v>
       </c>
       <c r="F12">
-        <v>45.82606694928402</v>
+        <v>22.06884926010647</v>
       </c>
       <c r="G12">
-        <v>1.988936645581423</v>
+        <v>2.054916423920865</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.62670216511715</v>
+        <v>15.94319921492398</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.18143521482019</v>
+        <v>16.4390999135877</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.9661062333295</v>
+        <v>18.15651989993623</v>
       </c>
       <c r="C13">
-        <v>19.35634247418221</v>
+        <v>10.00630345795973</v>
       </c>
       <c r="D13">
-        <v>3.499955993014767</v>
+        <v>5.076002904678627</v>
       </c>
       <c r="E13">
-        <v>40.63158675285404</v>
+        <v>39.04833237527086</v>
       </c>
       <c r="F13">
-        <v>45.68609041457067</v>
+        <v>22.03159496016904</v>
       </c>
       <c r="G13">
-        <v>1.989743740353425</v>
+        <v>2.055275307448223</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.55382511225374</v>
+        <v>15.90453658288369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.08586335628534</v>
+        <v>16.42372621700346</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.68829677912162</v>
+        <v>17.99822134877881</v>
       </c>
       <c r="C14">
-        <v>19.16887648965388</v>
+        <v>9.938321715426362</v>
       </c>
       <c r="D14">
-        <v>3.509417623292375</v>
+        <v>5.055820144512797</v>
       </c>
       <c r="E14">
-        <v>40.18181223788235</v>
+        <v>38.65689717110381</v>
       </c>
       <c r="F14">
-        <v>45.23102790631823</v>
+        <v>21.91056389249155</v>
       </c>
       <c r="G14">
-        <v>1.992371214273589</v>
+        <v>2.056446793055104</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.31553911071746</v>
+        <v>15.77790322118562</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.77452586966707</v>
+        <v>16.37421187159972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51753575096108</v>
+        <v>17.90068584000278</v>
       </c>
       <c r="C15">
-        <v>19.05370869566801</v>
+        <v>9.896494600891193</v>
       </c>
       <c r="D15">
-        <v>3.515349444377676</v>
+        <v>5.043409237872436</v>
       </c>
       <c r="E15">
-        <v>39.90609970002864</v>
+        <v>38.41621117099194</v>
       </c>
       <c r="F15">
-        <v>44.97092593880147</v>
+        <v>21.83678453103799</v>
       </c>
       <c r="G15">
-        <v>1.993977268852599</v>
+        <v>2.057165228726791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.16909722837926</v>
+        <v>15.69991629883195</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.58407254188923</v>
+        <v>16.34435816833026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52941935834659</v>
+        <v>17.33290883064117</v>
       </c>
       <c r="C16">
-        <v>18.38818734638036</v>
+        <v>9.6539445139194</v>
       </c>
       <c r="D16">
-        <v>3.551263168335547</v>
+        <v>4.97155755892087</v>
       </c>
       <c r="E16">
-        <v>38.32149999731583</v>
+        <v>37.02241759081776</v>
       </c>
       <c r="F16">
-        <v>43.48110022394626</v>
+        <v>21.41942515700924</v>
       </c>
       <c r="G16">
-        <v>2.003137982626686</v>
+        <v>2.061296806408424</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.32207975334095</v>
+        <v>15.24653618246166</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.4959692499877</v>
+        <v>16.18043214114868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.91426962237814</v>
+        <v>16.97664812583596</v>
       </c>
       <c r="C17">
-        <v>17.9746244033323</v>
+        <v>9.502602619644833</v>
       </c>
       <c r="D17">
-        <v>3.574842027762827</v>
+        <v>4.926840878543174</v>
       </c>
       <c r="E17">
-        <v>37.34393964095903</v>
+        <v>36.15398783541054</v>
       </c>
       <c r="F17">
-        <v>42.56712118698164</v>
+        <v>21.1682355852074</v>
       </c>
       <c r="G17">
-        <v>2.008727982481431</v>
+        <v>2.063845630462369</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.79509204536377</v>
+        <v>14.9626051738155</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.83090148361352</v>
+        <v>16.0861091289104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55698834001601</v>
+        <v>16.76879294085379</v>
       </c>
       <c r="C18">
-        <v>17.73468457364751</v>
+        <v>9.414621756038036</v>
       </c>
       <c r="D18">
-        <v>3.588912208700545</v>
+        <v>4.900891959295383</v>
       </c>
       <c r="E18">
-        <v>36.77917006271289</v>
+        <v>35.64940970899494</v>
       </c>
       <c r="F18">
-        <v>42.04118926398823</v>
+        <v>21.02553773837031</v>
       </c>
       <c r="G18">
-        <v>2.011935392922205</v>
+        <v>2.065317368215586</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.48912851884958</v>
+        <v>14.79715671919437</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.4490971794638</v>
+        <v>16.03409337943977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.43540938127101</v>
+        <v>16.69790914596134</v>
       </c>
       <c r="C19">
-        <v>17.65307847628925</v>
+        <v>9.384673037745216</v>
       </c>
       <c r="D19">
-        <v>3.593758215643228</v>
+        <v>4.892067285968153</v>
       </c>
       <c r="E19">
-        <v>36.58747524767419</v>
+        <v>35.47768088908901</v>
       </c>
       <c r="F19">
-        <v>41.86305845501786</v>
+        <v>20.97752835702368</v>
       </c>
       <c r="G19">
-        <v>2.013020304012351</v>
+        <v>2.065816700844496</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.38503138317957</v>
+        <v>14.74077069662443</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.31993492929436</v>
+        <v>16.01686040111291</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.9801082366343</v>
+        <v>17.01487682676107</v>
       </c>
       <c r="C20">
-        <v>18.01886035065532</v>
+        <v>9.518809858238784</v>
       </c>
       <c r="D20">
-        <v>3.572278148787743</v>
+        <v>4.931624877486139</v>
       </c>
       <c r="E20">
-        <v>37.44825104555195</v>
+        <v>36.24695590491315</v>
       </c>
       <c r="F20">
-        <v>42.66443551924336</v>
+        <v>21.19479093586214</v>
       </c>
       <c r="G20">
-        <v>2.008133793051472</v>
+        <v>2.063573722388595</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.85148304987589</v>
+        <v>14.99305130930012</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.90162048421639</v>
+        <v>16.09591723110148</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.77001899571292</v>
+        <v>18.04483675984373</v>
       </c>
       <c r="C21">
-        <v>19.22400969225304</v>
+        <v>9.958328429740645</v>
       </c>
       <c r="D21">
-        <v>3.506609683089459</v>
+        <v>5.061758421199238</v>
       </c>
       <c r="E21">
-        <v>40.31396286354084</v>
+        <v>38.77206203528642</v>
       </c>
       <c r="F21">
-        <v>45.36357357359863</v>
+        <v>21.94603949847026</v>
       </c>
       <c r="G21">
-        <v>1.991600180419529</v>
+        <v>2.056102521674207</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.3856295566929</v>
+        <v>15.81518603907393</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.86591982251944</v>
+        <v>16.38865607744137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.91275117921612</v>
+        <v>18.69226334325219</v>
       </c>
       <c r="C22">
-        <v>19.99609975608162</v>
+        <v>10.23724377404653</v>
       </c>
       <c r="D22">
-        <v>3.46962274528104</v>
+        <v>5.144656923430165</v>
       </c>
       <c r="E22">
-        <v>42.17597301233687</v>
+        <v>40.38071380360994</v>
       </c>
       <c r="F22">
-        <v>47.25428538221703</v>
+        <v>22.45293700929855</v>
       </c>
       <c r="G22">
-        <v>1.980653336565726</v>
+        <v>2.051259805892852</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.36617919499787</v>
+        <v>16.33366040661252</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.24660394953429</v>
+        <v>16.60109722014097</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30512827316079</v>
+        <v>18.34904648570396</v>
       </c>
       <c r="C23">
-        <v>19.58528604961908</v>
+        <v>10.08914350881716</v>
       </c>
       <c r="D23">
-        <v>3.488741612491579</v>
+        <v>5.10061441678544</v>
       </c>
       <c r="E23">
-        <v>41.18255398626416</v>
+        <v>39.52577126492096</v>
       </c>
       <c r="F23">
-        <v>46.24558906967312</v>
+        <v>22.18093403333291</v>
       </c>
       <c r="G23">
-        <v>1.986512688094319</v>
+        <v>2.053841337433386</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.84468449352969</v>
+        <v>16.05865221773221</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.46827794398116</v>
+        <v>16.4857228914192</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.95035392459926</v>
+        <v>16.99760309336299</v>
       </c>
       <c r="C24">
-        <v>17.99886808939705</v>
+        <v>9.511485593896943</v>
       </c>
       <c r="D24">
-        <v>3.573435690445103</v>
+        <v>4.92946278003346</v>
       </c>
       <c r="E24">
-        <v>37.40110056391627</v>
+        <v>36.20494160676838</v>
       </c>
       <c r="F24">
-        <v>42.62044123717379</v>
+        <v>21.18277992222513</v>
       </c>
       <c r="G24">
-        <v>2.008402445148352</v>
+        <v>2.063696632025971</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.82599802814571</v>
+        <v>14.97929350562278</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.86964674566371</v>
+        <v>16.09147611223176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27648216585811</v>
+        <v>15.4270917519347</v>
       </c>
       <c r="C25">
-        <v>16.20749926508574</v>
+        <v>8.852827335621186</v>
       </c>
       <c r="D25">
-        <v>3.683812129255529</v>
+        <v>4.736169439093199</v>
       </c>
       <c r="E25">
-        <v>33.2225392410089</v>
+        <v>32.42702172840705</v>
       </c>
       <c r="F25">
-        <v>38.77428950032038</v>
+        <v>20.17420586115987</v>
       </c>
       <c r="G25">
-        <v>2.031741721693741</v>
+        <v>2.074550955778914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.53815846423808</v>
+        <v>13.73324788156312</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.09361966460275</v>
+        <v>15.75096721822174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.1712931743233</v>
+        <v>13.85238158649465</v>
       </c>
       <c r="C2">
-        <v>8.337929653527544</v>
+        <v>10.10724155608563</v>
       </c>
       <c r="D2">
-        <v>4.587042237890809</v>
+        <v>5.157807079287662</v>
       </c>
       <c r="E2">
-        <v>29.45987919299319</v>
+        <v>29.49275330059142</v>
       </c>
       <c r="F2">
-        <v>19.49005642205439</v>
+        <v>15.52021673132867</v>
       </c>
       <c r="G2">
-        <v>2.082787385399959</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>18.17448440684291</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.938766379981461</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.929378569373114</v>
       </c>
       <c r="K2">
-        <v>12.74489762438207</v>
+        <v>12.06985322389394</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.06326676573018</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.56629514457019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.43344154646317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.25719021918139</v>
+        <v>13.01027617722929</v>
       </c>
       <c r="C3">
-        <v>7.970979486800879</v>
+        <v>9.643004914785024</v>
       </c>
       <c r="D3">
-        <v>4.482113766979353</v>
+        <v>4.938620745405225</v>
       </c>
       <c r="E3">
-        <v>27.3258591097262</v>
+        <v>27.38362935621196</v>
       </c>
       <c r="F3">
-        <v>19.0628240296881</v>
+        <v>15.29409272886304</v>
       </c>
       <c r="G3">
-        <v>2.08854468056302</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>17.95322607136663</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.785548701834692</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.004653654923635</v>
       </c>
       <c r="K3">
-        <v>12.03101636907703</v>
+        <v>12.26625826488604</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.38414815447505</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.47872317464013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.48747230580966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.66457706553702</v>
+        <v>12.46307621211795</v>
       </c>
       <c r="C4">
-        <v>7.737131376175883</v>
+        <v>9.349531353926444</v>
       </c>
       <c r="D4">
-        <v>4.415925172118809</v>
+        <v>4.798801644511562</v>
       </c>
       <c r="E4">
-        <v>25.95258672656193</v>
+        <v>26.02327319518508</v>
       </c>
       <c r="F4">
-        <v>18.81838909808279</v>
+        <v>15.16610096040406</v>
       </c>
       <c r="G4">
-        <v>2.092173027953769</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>17.83557021897268</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.689010088640387</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.054705096885959</v>
       </c>
       <c r="K4">
-        <v>11.57116325032444</v>
+        <v>12.39192895322093</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.94777795879403</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.44223782793964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.52975117381028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.41517178718991</v>
+        <v>12.23006516009672</v>
       </c>
       <c r="C5">
-        <v>7.639754317620069</v>
+        <v>9.236285930296493</v>
       </c>
       <c r="D5">
-        <v>4.38853319912312</v>
+        <v>4.742162706796366</v>
       </c>
       <c r="E5">
-        <v>25.37682506730913</v>
+        <v>25.45217365007465</v>
       </c>
       <c r="F5">
-        <v>18.72325609719793</v>
+        <v>15.10934338028543</v>
       </c>
       <c r="G5">
-        <v>2.093676015676724</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>17.77904719888405</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.649638220565782</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.074086017069263</v>
       </c>
       <c r="K5">
-        <v>11.37840889601193</v>
+        <v>12.43983131384648</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.76698420695872</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.43152523921374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.54409201382185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.37327984107308</v>
+        <v>12.18788727995721</v>
       </c>
       <c r="C6">
-        <v>7.623461344991359</v>
+        <v>9.22765988768824</v>
       </c>
       <c r="D6">
-        <v>4.383960157885832</v>
+        <v>4.734656728565176</v>
       </c>
       <c r="E6">
-        <v>25.28023672388817</v>
+        <v>25.35624636268479</v>
       </c>
       <c r="F6">
-        <v>18.7077287461617</v>
+        <v>15.09115101366979</v>
       </c>
       <c r="G6">
-        <v>2.093927085989628</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>17.75401878130776</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.644005931624274</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.074980702145284</v>
       </c>
       <c r="K6">
-        <v>11.34608036735518</v>
+        <v>12.44230362941011</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.7388896542494</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.42999174590033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.54040623499364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.66124555778915</v>
+        <v>12.45186431963176</v>
       </c>
       <c r="C7">
-        <v>7.735826449465747</v>
+        <v>9.37574044114341</v>
       </c>
       <c r="D7">
-        <v>4.415557421099548</v>
+        <v>4.80337310235988</v>
       </c>
       <c r="E7">
-        <v>25.94488755448382</v>
+        <v>26.01541031802353</v>
       </c>
       <c r="F7">
-        <v>18.81708801712669</v>
+        <v>15.14105590167979</v>
       </c>
       <c r="G7">
-        <v>2.092193197754869</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>17.79151041649497</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.690684415618874</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.048464586063488</v>
       </c>
       <c r="K7">
-        <v>11.56858531753139</v>
+        <v>12.37736102323363</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.95130780125438</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.44207678389921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.51301295485583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8625977787224</v>
+        <v>13.55835007995504</v>
       </c>
       <c r="C8">
-        <v>8.21321261704988</v>
+        <v>9.983901551656786</v>
       </c>
       <c r="D8">
-        <v>4.551242250304694</v>
+        <v>5.090113260112561</v>
       </c>
       <c r="E8">
-        <v>28.73694928777177</v>
+        <v>28.77862221745198</v>
       </c>
       <c r="F8">
-        <v>19.33902541047091</v>
+        <v>15.40850935650681</v>
       </c>
       <c r="G8">
-        <v>2.08475370852774</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>18.03801811149426</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.888783072432982</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.945911673636797</v>
       </c>
       <c r="K8">
-        <v>12.50324475174457</v>
+        <v>12.11623691941367</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.84065432793491</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.53239962398096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.42774450004139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9714170642414</v>
+        <v>15.50111908013087</v>
       </c>
       <c r="C9">
-        <v>9.079410551631014</v>
+        <v>11.06125995250064</v>
       </c>
       <c r="D9">
-        <v>4.802384985017836</v>
+        <v>5.600273301528014</v>
       </c>
       <c r="E9">
-        <v>33.72736967677534</v>
+        <v>33.69088425387659</v>
       </c>
       <c r="F9">
-        <v>20.50486588838166</v>
+        <v>16.06225097895572</v>
       </c>
       <c r="G9">
-        <v>2.070859944250407</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>18.74748244860978</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.255889549934204</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.788496119706827</v>
       </c>
       <c r="K9">
-        <v>14.16398029981447</v>
+        <v>11.67373791733658</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.41764027051844</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.85494140417815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.36818538851135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37316341944418</v>
+        <v>16.77860618896275</v>
       </c>
       <c r="C10">
-        <v>9.671087043072893</v>
+        <v>11.82083114605825</v>
       </c>
       <c r="D10">
-        <v>4.976628607900862</v>
+        <v>5.949423691040838</v>
       </c>
       <c r="E10">
-        <v>37.12083461977185</v>
+        <v>37.00814664906367</v>
       </c>
       <c r="F10">
-        <v>21.44832885818647</v>
+        <v>16.58504435367118</v>
       </c>
       <c r="G10">
-        <v>2.061006708197146</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>19.34687176917491</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.516516551390497</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.691619088549495</v>
       </c>
       <c r="K10">
-        <v>15.27864543497708</v>
+        <v>11.36954007960537</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.47986116544262</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.19150222089548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.37056677430146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.9796036134516</v>
+        <v>17.31841593578888</v>
       </c>
       <c r="C11">
-        <v>9.93033414407777</v>
+        <v>12.19294936356287</v>
       </c>
       <c r="D11">
-        <v>5.053449659438804</v>
+        <v>6.10909683834358</v>
       </c>
       <c r="E11">
-        <v>38.61092559425666</v>
+        <v>38.4576317409653</v>
       </c>
       <c r="F11">
-        <v>21.89643393575608</v>
+        <v>16.79952463098037</v>
       </c>
       <c r="G11">
-        <v>2.056584127486635</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.57917001242934</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.636737577246839</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.642227282281778</v>
       </c>
       <c r="K11">
-        <v>15.76301468908267</v>
+        <v>11.21223069962979</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.94890991231929</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.36847484867886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.35798007465653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.20483149316467</v>
+        <v>17.52365449417023</v>
       </c>
       <c r="C12">
-        <v>10.02707462975615</v>
+        <v>12.31253862159336</v>
       </c>
       <c r="D12">
-        <v>5.082172205652792</v>
+        <v>6.164702679386665</v>
       </c>
       <c r="E12">
-        <v>39.1679964025378</v>
+        <v>38.99863258194225</v>
       </c>
       <c r="F12">
-        <v>22.06884926010647</v>
+        <v>16.90146346375102</v>
       </c>
       <c r="G12">
-        <v>2.054916423920865</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>19.70457898732353</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.680146712477397</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.630034414833138</v>
       </c>
       <c r="K12">
-        <v>15.94319921492398</v>
+        <v>11.16742266190488</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.11916242814551</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.4390999135877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.36977553313973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.15651989993623</v>
+        <v>17.48070074986032</v>
       </c>
       <c r="C13">
-        <v>10.00630345795973</v>
+        <v>12.28292629210038</v>
       </c>
       <c r="D13">
-        <v>5.076002904678627</v>
+        <v>6.151994027463399</v>
       </c>
       <c r="E13">
-        <v>39.04833237527086</v>
+        <v>38.88252266335364</v>
       </c>
       <c r="F13">
-        <v>22.03159496016904</v>
+        <v>16.88320090424177</v>
       </c>
       <c r="G13">
-        <v>2.055275307448223</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>19.68417078285511</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.670380325012183</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.63376650768789</v>
       </c>
       <c r="K13">
-        <v>15.90453658288369</v>
+        <v>11.1797888322606</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>16.0818089316484</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.42372621700346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.37004264524228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.99822134877881</v>
+        <v>17.33583982296772</v>
       </c>
       <c r="C14">
-        <v>9.938321715426362</v>
+        <v>12.20114077390545</v>
       </c>
       <c r="D14">
-        <v>5.055820144512797</v>
+        <v>6.113359466238608</v>
       </c>
       <c r="E14">
-        <v>38.65689717110381</v>
+        <v>38.50232155002439</v>
       </c>
       <c r="F14">
-        <v>21.91056389249155</v>
+        <v>16.80948471612016</v>
       </c>
       <c r="G14">
-        <v>2.056446793055104</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.59230133519742</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.640125043204001</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.641693037315044</v>
       </c>
       <c r="K14">
-        <v>15.77790322118562</v>
+        <v>11.20969456078342</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.9626263596175</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.37421187159972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.36014236664633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.90068584000278</v>
+        <v>17.24442642860827</v>
       </c>
       <c r="C15">
-        <v>9.896494600891193</v>
+        <v>12.15867751424637</v>
       </c>
       <c r="D15">
-        <v>5.043409237872436</v>
+        <v>6.091114769393958</v>
       </c>
       <c r="E15">
-        <v>38.41621117099194</v>
+        <v>38.26829535269099</v>
       </c>
       <c r="F15">
-        <v>21.83678453103799</v>
+        <v>16.75706858183044</v>
       </c>
       <c r="G15">
-        <v>2.057165228726791</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>19.52304917904655</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.622496213448523</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.644406961722079</v>
       </c>
       <c r="K15">
-        <v>15.69991629883195</v>
+        <v>11.22273464975752</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.89086201366876</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.34435816833026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.34862534107712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.33290883064117</v>
+        <v>16.72467008865543</v>
       </c>
       <c r="C16">
-        <v>9.6539445139194</v>
+        <v>11.86324712585402</v>
       </c>
       <c r="D16">
-        <v>4.97155755892087</v>
+        <v>5.952044621532396</v>
       </c>
       <c r="E16">
-        <v>37.02241759081776</v>
+        <v>36.91146971398502</v>
       </c>
       <c r="F16">
-        <v>21.41942515700924</v>
+        <v>16.50745191841832</v>
       </c>
       <c r="G16">
-        <v>2.061296806408424</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>19.2177063777207</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.51545588801495</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.675994922204497</v>
       </c>
       <c r="K16">
-        <v>15.24653618246166</v>
+        <v>11.33439946628442</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.46291643694365</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.18043214114868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.32325163763355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97664812583596</v>
+        <v>16.39770269435494</v>
       </c>
       <c r="C17">
-        <v>9.502602619644833</v>
+        <v>11.67950012548724</v>
       </c>
       <c r="D17">
-        <v>4.926840878543174</v>
+        <v>5.865079548580081</v>
       </c>
       <c r="E17">
-        <v>36.15398783541054</v>
+        <v>36.0642269109562</v>
       </c>
       <c r="F17">
-        <v>21.1682355852074</v>
+        <v>16.35744217646974</v>
       </c>
       <c r="G17">
-        <v>2.063845630462369</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>19.0364179318617</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.449500978067151</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.696876402904468</v>
       </c>
       <c r="K17">
-        <v>14.9626051738155</v>
+        <v>11.40499830399553</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>15.19478042946927</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.0861091289104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.31142059809769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.76879294085379</v>
+        <v>16.21226925731254</v>
       </c>
       <c r="C18">
-        <v>9.414621756038036</v>
+        <v>11.55210721352965</v>
       </c>
       <c r="D18">
-        <v>4.900891959295383</v>
+        <v>5.810382604231569</v>
       </c>
       <c r="E18">
-        <v>35.64940970899494</v>
+        <v>35.57156403762738</v>
       </c>
       <c r="F18">
-        <v>21.02553773837031</v>
+        <v>16.29192999948489</v>
       </c>
       <c r="G18">
-        <v>2.065317368215586</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>18.96953924828108</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.408532292801504</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.715151323280507</v>
       </c>
       <c r="K18">
-        <v>14.79715671919437</v>
+        <v>11.46000550934183</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.03410913149648</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.03409337943977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.32064521136192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.69790914596134</v>
+        <v>16.14464788111207</v>
       </c>
       <c r="C19">
-        <v>9.384673037745216</v>
+        <v>11.52481603740227</v>
       </c>
       <c r="D19">
-        <v>4.892067285968153</v>
+        <v>5.794899708424682</v>
       </c>
       <c r="E19">
-        <v>35.47768088908901</v>
+        <v>35.4036073050712</v>
       </c>
       <c r="F19">
-        <v>20.97752835702368</v>
+        <v>16.25483285162734</v>
       </c>
       <c r="G19">
-        <v>2.065816700844496</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>18.92015874386698</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.396816431773864</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.717008041929782</v>
       </c>
       <c r="K19">
-        <v>14.74077069662443</v>
+        <v>11.4682092227789</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.98273794333677</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.01686040111291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.31265552442541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01487682676107</v>
+        <v>16.43325370393524</v>
       </c>
       <c r="C20">
-        <v>9.518809858238784</v>
+        <v>11.69753870542857</v>
       </c>
       <c r="D20">
-        <v>4.931624877486139</v>
+        <v>5.874082000980064</v>
       </c>
       <c r="E20">
-        <v>36.24695590491315</v>
+        <v>36.15501105204263</v>
       </c>
       <c r="F20">
-        <v>21.19479093586214</v>
+        <v>16.37482235379255</v>
       </c>
       <c r="G20">
-        <v>2.063573722388595</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>19.05823347212277</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.456300380387934</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.695047724138225</v>
       </c>
       <c r="K20">
-        <v>14.99305130930012</v>
+        <v>11.39847956814061</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.22319522710123</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.09591723110148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.31369369281887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.04483675984373</v>
+        <v>17.37262050118101</v>
       </c>
       <c r="C21">
-        <v>9.958328429740645</v>
+        <v>12.24726296990663</v>
       </c>
       <c r="D21">
-        <v>5.061758421199238</v>
+        <v>6.129089514773895</v>
       </c>
       <c r="E21">
-        <v>38.77206203528642</v>
+        <v>38.61393924324226</v>
       </c>
       <c r="F21">
-        <v>21.94603949847026</v>
+        <v>16.80991808283573</v>
       </c>
       <c r="G21">
-        <v>2.056102521674207</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.58125368541189</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.651675714715415</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.632928165016632</v>
       </c>
       <c r="K21">
-        <v>15.81518603907393</v>
+        <v>11.18540031396159</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.00237307624656</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.38865607744137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.34670923818948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.69226334325219</v>
+        <v>17.96755948568169</v>
       </c>
       <c r="C22">
-        <v>10.23724377404653</v>
+        <v>12.5703270493611</v>
       </c>
       <c r="D22">
-        <v>5.144656923430165</v>
+        <v>6.284758707709489</v>
       </c>
       <c r="E22">
-        <v>40.38071380360994</v>
+        <v>40.17419281138505</v>
       </c>
       <c r="F22">
-        <v>22.45293700929855</v>
+        <v>17.13129987283824</v>
       </c>
       <c r="G22">
-        <v>2.051259805892852</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>19.99109092983989</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.774993746064947</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.605629225296083</v>
       </c>
       <c r="K22">
-        <v>16.33366040661252</v>
+        <v>11.0730368146258</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.48731440881174</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.60109722014097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.40171701135204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.34904648570396</v>
+        <v>17.65947978377934</v>
       </c>
       <c r="C23">
-        <v>10.08914350881716</v>
+        <v>12.37228001781049</v>
       </c>
       <c r="D23">
-        <v>5.10061441678544</v>
+        <v>6.196964584669633</v>
       </c>
       <c r="E23">
-        <v>39.52577126492096</v>
+        <v>39.34597224395628</v>
       </c>
       <c r="F23">
-        <v>22.18093403333291</v>
+        <v>16.98422777533469</v>
       </c>
       <c r="G23">
-        <v>2.053841337433386</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>19.81598954118239</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.706415453996228</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.627442086930558</v>
       </c>
       <c r="K23">
-        <v>16.05865221773221</v>
+        <v>11.15103397915737</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.22461326754319</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.4857228914192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.39074592094212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99760309336299</v>
+        <v>16.42894873541388</v>
       </c>
       <c r="C24">
-        <v>9.511485593896943</v>
+        <v>11.64583083481266</v>
       </c>
       <c r="D24">
-        <v>4.92946278003346</v>
+        <v>5.861455556328742</v>
       </c>
       <c r="E24">
-        <v>36.20494160676838</v>
+        <v>36.11448378906827</v>
       </c>
       <c r="F24">
-        <v>21.18277992222513</v>
+        <v>16.40824531479767</v>
       </c>
       <c r="G24">
-        <v>2.063696632025971</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>19.1224206536764</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.447950506209466</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.70801258649805</v>
       </c>
       <c r="K24">
-        <v>14.97929350562278</v>
+        <v>11.43045999878292</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.20114800902388</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.09147611223176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.34374914772935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.4270917519347</v>
+        <v>14.98898176952143</v>
       </c>
       <c r="C25">
-        <v>8.852827335621186</v>
+        <v>10.82212866056685</v>
       </c>
       <c r="D25">
-        <v>4.736169439093199</v>
+        <v>5.475808926340632</v>
       </c>
       <c r="E25">
-        <v>32.42702172840705</v>
+        <v>32.41406957263163</v>
       </c>
       <c r="F25">
-        <v>20.17420586115987</v>
+        <v>15.83443681149573</v>
       </c>
       <c r="G25">
-        <v>2.074550955778914</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>18.46417838338699</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.162341578500584</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.81563054713564</v>
       </c>
       <c r="K25">
-        <v>13.73324788156312</v>
+        <v>11.76071432306247</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.0177288296491</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.75096721822174</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.34484604527038</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85238158649465</v>
+        <v>13.80146394838045</v>
       </c>
       <c r="C2">
-        <v>10.10724155608563</v>
+        <v>10.22665425613253</v>
       </c>
       <c r="D2">
-        <v>5.157807079287662</v>
+        <v>5.213568973785361</v>
       </c>
       <c r="E2">
-        <v>29.49275330059142</v>
+        <v>29.49012915232584</v>
       </c>
       <c r="F2">
-        <v>15.52021673132867</v>
+        <v>15.26168505460638</v>
       </c>
       <c r="G2">
-        <v>18.17448440684291</v>
+        <v>16.96760951488391</v>
       </c>
       <c r="I2">
-        <v>2.938766379981461</v>
+        <v>2.962397201215786</v>
       </c>
       <c r="J2">
-        <v>7.929378569373114</v>
+        <v>8.425768331564429</v>
       </c>
       <c r="K2">
-        <v>12.06985322389394</v>
+        <v>11.82948805518102</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.74305699088457</v>
       </c>
       <c r="M2">
-        <v>13.06326676573018</v>
+        <v>6.750028634606352</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.1081508929059</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.43344154646317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.24955243728558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.01027617722929</v>
+        <v>12.98799582460616</v>
       </c>
       <c r="C3">
-        <v>9.643004914785024</v>
+        <v>9.669785908256568</v>
       </c>
       <c r="D3">
-        <v>4.938620745405225</v>
+        <v>4.976454637025403</v>
       </c>
       <c r="E3">
-        <v>27.38362935621196</v>
+        <v>27.3851179109326</v>
       </c>
       <c r="F3">
-        <v>15.29409272886304</v>
+        <v>15.07830162967694</v>
       </c>
       <c r="G3">
-        <v>17.95322607136663</v>
+        <v>16.82326207795142</v>
       </c>
       <c r="I3">
-        <v>2.785548701834692</v>
+        <v>2.826184275181987</v>
       </c>
       <c r="J3">
-        <v>8.004653654923635</v>
+        <v>8.473571558440884</v>
       </c>
       <c r="K3">
-        <v>12.26625826488604</v>
+        <v>12.03513503607501</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.94275268706567</v>
       </c>
       <c r="M3">
-        <v>12.38414815447505</v>
+        <v>6.882362336694013</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.4180379117732</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.48747230580966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.32786381376282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.46307621211795</v>
+        <v>12.45965854497578</v>
       </c>
       <c r="C4">
-        <v>9.349531353926444</v>
+        <v>9.316709022835408</v>
       </c>
       <c r="D4">
-        <v>4.798801644511562</v>
+        <v>4.825129071423183</v>
       </c>
       <c r="E4">
-        <v>26.02327319518508</v>
+        <v>26.02698611467052</v>
       </c>
       <c r="F4">
-        <v>15.16610096040406</v>
+        <v>14.97500086062876</v>
       </c>
       <c r="G4">
-        <v>17.83557021897268</v>
+        <v>16.75488254416329</v>
       </c>
       <c r="I4">
-        <v>2.689010088640387</v>
+        <v>2.740488004073609</v>
       </c>
       <c r="J4">
-        <v>8.054705096885959</v>
+        <v>8.504694095422996</v>
       </c>
       <c r="K4">
-        <v>12.39192895322093</v>
+        <v>12.16500519654495</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.06967871365079</v>
       </c>
       <c r="M4">
-        <v>11.94777795879403</v>
+        <v>6.985494545314261</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.97463284368409</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.52975117381028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.38342064270551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.23006516009672</v>
+        <v>12.23471993746027</v>
       </c>
       <c r="C5">
-        <v>9.236285930296493</v>
+        <v>9.178813837879657</v>
       </c>
       <c r="D5">
-        <v>4.742162706796366</v>
+        <v>4.763670092499422</v>
       </c>
       <c r="E5">
-        <v>25.45217365007465</v>
+        <v>25.45672764220676</v>
       </c>
       <c r="F5">
-        <v>15.10934338028543</v>
+        <v>14.92805381667228</v>
       </c>
       <c r="G5">
-        <v>17.77904719888405</v>
+        <v>16.7187988889969</v>
       </c>
       <c r="I5">
-        <v>2.649638220565782</v>
+        <v>2.70589635287603</v>
       </c>
       <c r="J5">
-        <v>8.074086017069263</v>
+        <v>8.51593863812802</v>
       </c>
       <c r="K5">
-        <v>12.43983131384648</v>
+        <v>12.21448906004193</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.11819608091993</v>
       </c>
       <c r="M5">
-        <v>11.76698420695872</v>
+        <v>7.030775551305004</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.79089360263005</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.54409201382185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.40291868245692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.18788727995721</v>
+        <v>12.19396618781243</v>
       </c>
       <c r="C6">
-        <v>9.22765988768824</v>
+        <v>9.166410539500511</v>
       </c>
       <c r="D6">
-        <v>4.734656728565176</v>
+        <v>4.755340414197443</v>
       </c>
       <c r="E6">
-        <v>25.35624636268479</v>
+        <v>25.36093922146464</v>
       </c>
       <c r="F6">
-        <v>15.09115101366979</v>
+        <v>14.91166327168387</v>
       </c>
       <c r="G6">
-        <v>17.75401878130776</v>
+        <v>16.69712634078115</v>
       </c>
       <c r="I6">
-        <v>2.644005931624274</v>
+        <v>2.701418609997472</v>
       </c>
       <c r="J6">
-        <v>8.074980702145284</v>
+        <v>8.515542012635626</v>
       </c>
       <c r="K6">
-        <v>12.44230362941011</v>
+        <v>12.21747415128348</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.12108303466972</v>
       </c>
       <c r="M6">
-        <v>11.7388896542494</v>
+        <v>7.036126280650053</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.76228332342866</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.54040623499364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.40024230185614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45186431963176</v>
+        <v>12.44938059333172</v>
       </c>
       <c r="C7">
-        <v>9.37574044114341</v>
+        <v>9.339327105033535</v>
       </c>
       <c r="D7">
-        <v>4.80337310235988</v>
+        <v>4.832849004427047</v>
       </c>
       <c r="E7">
-        <v>26.01541031802353</v>
+        <v>26.0189562152921</v>
       </c>
       <c r="F7">
-        <v>15.14105590167979</v>
+        <v>14.93685149012391</v>
       </c>
       <c r="G7">
-        <v>17.79151041649497</v>
+        <v>16.79274466099783</v>
       </c>
       <c r="I7">
-        <v>2.690684415618874</v>
+        <v>2.742677439970136</v>
       </c>
       <c r="J7">
-        <v>8.048464586063488</v>
+        <v>8.466539397114035</v>
       </c>
       <c r="K7">
-        <v>12.37736102323363</v>
+        <v>12.14610740327362</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.05148505868947</v>
       </c>
       <c r="M7">
-        <v>11.95130780125438</v>
+        <v>6.976076347881809</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.97686407539403</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.51301295485583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.35787333567579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.55835007995504</v>
+        <v>13.51932175357799</v>
       </c>
       <c r="C8">
-        <v>9.983901551656786</v>
+        <v>10.05994136252791</v>
       </c>
       <c r="D8">
-        <v>5.090113260112561</v>
+        <v>5.150109023279168</v>
       </c>
       <c r="E8">
-        <v>28.77862221745198</v>
+        <v>28.77685083520854</v>
       </c>
       <c r="F8">
-        <v>15.40850935650681</v>
+        <v>15.12083128637882</v>
       </c>
       <c r="G8">
-        <v>18.03801811149426</v>
+        <v>17.12727140477052</v>
       </c>
       <c r="I8">
-        <v>2.888783072432982</v>
+        <v>2.917915726899384</v>
       </c>
       <c r="J8">
-        <v>7.945911673636797</v>
+        <v>8.328893825474672</v>
       </c>
       <c r="K8">
-        <v>12.11623691941367</v>
+        <v>11.86378869741859</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.77999336780427</v>
       </c>
       <c r="M8">
-        <v>12.84065432793491</v>
+        <v>6.767390237189394</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.878060585938</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.42774450004139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.22222848432185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.50111908013087</v>
+        <v>15.39737389700427</v>
       </c>
       <c r="C9">
-        <v>11.06125995250064</v>
+        <v>11.34907495357962</v>
       </c>
       <c r="D9">
-        <v>5.600273301528014</v>
+        <v>5.703913131518144</v>
       </c>
       <c r="E9">
-        <v>33.69088425387659</v>
+        <v>33.67653909622346</v>
       </c>
       <c r="F9">
-        <v>16.06225097895572</v>
+        <v>15.64949486879394</v>
       </c>
       <c r="G9">
-        <v>18.74748244860978</v>
+        <v>17.72503547622174</v>
       </c>
       <c r="I9">
-        <v>3.255889549934204</v>
+        <v>3.243484500985249</v>
       </c>
       <c r="J9">
-        <v>7.788496119706827</v>
+        <v>8.197309289709331</v>
       </c>
       <c r="K9">
-        <v>11.67373791733658</v>
+        <v>11.38342626482875</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.32099039836767</v>
       </c>
       <c r="M9">
-        <v>14.41764027051844</v>
+        <v>6.568235602244362</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.48006309768327</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.36818538851135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.08343426496891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.77860618896275</v>
+        <v>16.63577582733892</v>
       </c>
       <c r="C10">
-        <v>11.82083114605825</v>
+        <v>12.22999025006585</v>
       </c>
       <c r="D10">
-        <v>5.949423691040838</v>
+        <v>6.098324630208258</v>
       </c>
       <c r="E10">
-        <v>37.00814664906367</v>
+        <v>36.98095423298433</v>
       </c>
       <c r="F10">
-        <v>16.58504435367118</v>
+        <v>16.0018660741133</v>
       </c>
       <c r="G10">
-        <v>19.34687176917491</v>
+        <v>18.70829113735099</v>
       </c>
       <c r="I10">
-        <v>3.516516551390497</v>
+        <v>3.473774105818387</v>
       </c>
       <c r="J10">
-        <v>7.691619088549495</v>
+        <v>7.92983271899867</v>
       </c>
       <c r="K10">
-        <v>11.36954007960537</v>
+        <v>11.01278809382966</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.981197646048077</v>
       </c>
       <c r="M10">
-        <v>15.47986116544262</v>
+        <v>6.508661687098225</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.55318455162062</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.37056677430146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.96467394344253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.31841593578888</v>
+        <v>17.16444107563781</v>
       </c>
       <c r="C11">
-        <v>12.19294936356287</v>
+        <v>12.62151654678501</v>
       </c>
       <c r="D11">
-        <v>6.10909683834358</v>
+        <v>6.305571270258264</v>
       </c>
       <c r="E11">
-        <v>38.4576317409653</v>
+        <v>38.42172362780494</v>
       </c>
       <c r="F11">
-        <v>16.79952463098037</v>
+        <v>16.01046347935872</v>
       </c>
       <c r="G11">
-        <v>19.57917001242934</v>
+        <v>19.90683221539325</v>
       </c>
       <c r="I11">
-        <v>3.636737577246839</v>
+        <v>3.578927326197632</v>
       </c>
       <c r="J11">
-        <v>7.642227282281778</v>
+        <v>7.524727097166396</v>
       </c>
       <c r="K11">
-        <v>11.21223069962979</v>
+        <v>10.7734451273839</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.789212252806854</v>
       </c>
       <c r="M11">
-        <v>15.94890991231929</v>
+        <v>6.431367093323471</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.01772479328437</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.35798007465653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.79987877349684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52365449417023</v>
+        <v>17.3661550799484</v>
       </c>
       <c r="C12">
-        <v>12.31253862159336</v>
+        <v>12.74380199263072</v>
       </c>
       <c r="D12">
-        <v>6.164702679386665</v>
+        <v>6.382406873360077</v>
       </c>
       <c r="E12">
-        <v>38.99863258194225</v>
+        <v>38.95903438971278</v>
       </c>
       <c r="F12">
-        <v>16.90146346375102</v>
+        <v>16.01802031629607</v>
       </c>
       <c r="G12">
-        <v>19.70457898732353</v>
+        <v>20.49552162149057</v>
       </c>
       <c r="I12">
-        <v>3.680146712477397</v>
+        <v>3.61554139248948</v>
       </c>
       <c r="J12">
-        <v>7.630034414833138</v>
+        <v>7.357270465271941</v>
       </c>
       <c r="K12">
-        <v>11.16742266190488</v>
+        <v>10.68875888084667</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.721918775694656</v>
       </c>
       <c r="M12">
-        <v>16.11916242814551</v>
+        <v>6.410031059987626</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.18528217535389</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.36977553313973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.74057346913375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.48070074986032</v>
+        <v>17.32390286106863</v>
       </c>
       <c r="C13">
-        <v>12.28292629210038</v>
+        <v>12.71371129181074</v>
       </c>
       <c r="D13">
-        <v>6.151994027463399</v>
+        <v>6.36498689483767</v>
       </c>
       <c r="E13">
-        <v>38.88252266335364</v>
+        <v>38.84373243512194</v>
       </c>
       <c r="F13">
-        <v>16.88320090424177</v>
+        <v>16.02067512086542</v>
       </c>
       <c r="G13">
-        <v>19.68417078285511</v>
+        <v>20.37098456667347</v>
       </c>
       <c r="I13">
-        <v>3.670380325012183</v>
+        <v>3.607062731191239</v>
       </c>
       <c r="J13">
-        <v>7.63376650768789</v>
+        <v>7.39454260510399</v>
       </c>
       <c r="K13">
-        <v>11.1797888322606</v>
+        <v>10.70965480788751</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.737850687605118</v>
       </c>
       <c r="M13">
-        <v>16.0818089316484</v>
+        <v>6.417258024574362</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.14856071833528</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.37004264524228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.75656222420941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.33583982296772</v>
+        <v>17.18154962033573</v>
       </c>
       <c r="C14">
-        <v>12.20114077390545</v>
+        <v>12.62997674810734</v>
       </c>
       <c r="D14">
-        <v>6.113359466238608</v>
+        <v>6.311518090564111</v>
       </c>
       <c r="E14">
-        <v>38.50232155002439</v>
+        <v>38.4661159658211</v>
       </c>
       <c r="F14">
-        <v>16.80948471612016</v>
+        <v>16.01292766710999</v>
       </c>
       <c r="G14">
-        <v>19.59230133519742</v>
+        <v>19.9561177966119</v>
       </c>
       <c r="I14">
-        <v>3.640125043204001</v>
+        <v>3.581680285887554</v>
       </c>
       <c r="J14">
-        <v>7.641693037315044</v>
+        <v>7.511533761911382</v>
       </c>
       <c r="K14">
-        <v>11.20969456078342</v>
+        <v>10.76761797616409</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.784303378163969</v>
       </c>
       <c r="M14">
-        <v>15.9626263596175</v>
+        <v>6.430727580571848</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.03124273408195</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.36014236664633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.79638116430122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.24442642860827</v>
+        <v>17.09182021773728</v>
       </c>
       <c r="C15">
-        <v>12.15867751424637</v>
+        <v>12.58595263923831</v>
       </c>
       <c r="D15">
-        <v>6.091114769393958</v>
+        <v>6.280593933530651</v>
       </c>
       <c r="E15">
-        <v>38.26829535269099</v>
+        <v>38.23363042784725</v>
       </c>
       <c r="F15">
-        <v>16.75706858183044</v>
+        <v>15.99907722519349</v>
       </c>
       <c r="G15">
-        <v>19.52304917904655</v>
+        <v>19.7017567488285</v>
       </c>
       <c r="I15">
-        <v>3.622496213448523</v>
+        <v>3.567389469148233</v>
       </c>
       <c r="J15">
-        <v>7.644406961722079</v>
+        <v>7.579755969003442</v>
       </c>
       <c r="K15">
-        <v>11.22273464975752</v>
+        <v>10.79759068268327</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.809721048313113</v>
       </c>
       <c r="M15">
-        <v>15.89086201366876</v>
+        <v>6.433683764301922</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.96047466157698</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.34862534107712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.81395192710103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.72467008865543</v>
+        <v>16.58304001883808</v>
       </c>
       <c r="C16">
-        <v>11.86324712585402</v>
+        <v>12.27216890945292</v>
       </c>
       <c r="D16">
-        <v>5.952044621532396</v>
+        <v>6.098170661120331</v>
       </c>
       <c r="E16">
-        <v>36.91146971398502</v>
+        <v>36.88484206843034</v>
       </c>
       <c r="F16">
-        <v>16.50745191841832</v>
+        <v>15.93749162514932</v>
       </c>
       <c r="G16">
-        <v>19.2177063777207</v>
+        <v>18.52941723308123</v>
       </c>
       <c r="I16">
-        <v>3.51545588801495</v>
+        <v>3.476610410156068</v>
       </c>
       <c r="J16">
-        <v>7.675994922204497</v>
+        <v>7.937233872942313</v>
       </c>
       <c r="K16">
-        <v>11.33439946628442</v>
+        <v>10.98726737148217</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.968364497031018</v>
       </c>
       <c r="M16">
-        <v>15.46291643694365</v>
+        <v>6.473908436320031</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.53625922485184</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.32325163763355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.92802712323299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.39770269435494</v>
+        <v>16.26420029976884</v>
       </c>
       <c r="C17">
-        <v>11.67950012548724</v>
+        <v>12.06958170740358</v>
       </c>
       <c r="D17">
-        <v>5.865079548580081</v>
+        <v>5.990209059233318</v>
       </c>
       <c r="E17">
-        <v>36.0642269109562</v>
+        <v>36.04186448091698</v>
       </c>
       <c r="F17">
-        <v>16.35744217646974</v>
+        <v>15.87531851122563</v>
       </c>
       <c r="G17">
-        <v>19.0364179318617</v>
+        <v>17.98571068145755</v>
       </c>
       <c r="I17">
-        <v>3.449500978067151</v>
+        <v>3.420132349578708</v>
       </c>
       <c r="J17">
-        <v>7.696876402904468</v>
+        <v>8.105817590428885</v>
       </c>
       <c r="K17">
-        <v>11.40499830399553</v>
+        <v>11.09344028876603</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.06130193758428</v>
       </c>
       <c r="M17">
-        <v>15.19478042946927</v>
+        <v>6.493314426415127</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.26850525064277</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.31142059809769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.98013995814483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.21226925731254</v>
+        <v>16.08383306066529</v>
       </c>
       <c r="C18">
-        <v>11.55210721352965</v>
+        <v>11.92799508854516</v>
       </c>
       <c r="D18">
-        <v>5.810382604231569</v>
+        <v>5.925509299095498</v>
       </c>
       <c r="E18">
-        <v>35.57156403762738</v>
+        <v>35.55140392146676</v>
       </c>
       <c r="F18">
-        <v>16.29192999948489</v>
+        <v>15.849888339612</v>
       </c>
       <c r="G18">
-        <v>18.96953924828108</v>
+        <v>17.77081094098135</v>
       </c>
       <c r="I18">
-        <v>3.408532292801504</v>
+        <v>3.383344371190386</v>
       </c>
       <c r="J18">
-        <v>7.715151323280507</v>
+        <v>8.186121176749008</v>
       </c>
       <c r="K18">
-        <v>11.46000550934183</v>
+        <v>11.16322583939417</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.12103928784699</v>
       </c>
       <c r="M18">
-        <v>15.03410913149648</v>
+        <v>6.514451174378015</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.10737557046792</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.32064521136192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.01788067880987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.14464788111207</v>
+        <v>16.01809967370183</v>
       </c>
       <c r="C19">
-        <v>11.52481603740227</v>
+        <v>11.89582644349197</v>
       </c>
       <c r="D19">
-        <v>5.794899708424682</v>
+        <v>5.906954704885337</v>
       </c>
       <c r="E19">
-        <v>35.4036073050712</v>
+        <v>35.38416352349839</v>
       </c>
       <c r="F19">
-        <v>16.25483285162734</v>
+        <v>15.82513382665217</v>
       </c>
       <c r="G19">
-        <v>18.92015874386698</v>
+        <v>17.68156553682232</v>
       </c>
       <c r="I19">
-        <v>3.396816431773864</v>
+        <v>3.373814744386505</v>
       </c>
       <c r="J19">
-        <v>7.717008041929782</v>
+        <v>8.20550677430019</v>
       </c>
       <c r="K19">
-        <v>11.4682092227789</v>
+        <v>11.17679660108666</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.13474651122089</v>
       </c>
       <c r="M19">
-        <v>14.98273794333677</v>
+        <v>6.512510934864944</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.05569397933677</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.31265552442541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.01879698814799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.43325370393524</v>
+        <v>16.29882503688265</v>
       </c>
       <c r="C20">
-        <v>11.69753870542857</v>
+        <v>12.08987646216981</v>
       </c>
       <c r="D20">
-        <v>5.874082000980064</v>
+        <v>6.001238637578987</v>
       </c>
       <c r="E20">
-        <v>36.15501105204263</v>
+        <v>36.13221830885339</v>
       </c>
       <c r="F20">
-        <v>16.37482235379255</v>
+        <v>15.8843302816947</v>
       </c>
       <c r="G20">
-        <v>19.05823347212277</v>
+        <v>18.03979313940035</v>
       </c>
       <c r="I20">
-        <v>3.456300380387934</v>
+        <v>3.425858649917447</v>
       </c>
       <c r="J20">
-        <v>7.695047724138225</v>
+        <v>8.090464696981599</v>
       </c>
       <c r="K20">
-        <v>11.39847956814061</v>
+        <v>11.08346971900671</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.05220641220081</v>
       </c>
       <c r="M20">
-        <v>15.22319522710123</v>
+        <v>6.492327739509824</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.29695648331306</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.31369369281887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.97634531572096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.37262050118101</v>
+        <v>17.21966177532801</v>
       </c>
       <c r="C21">
-        <v>12.24726296990663</v>
+        <v>12.66536307613431</v>
       </c>
       <c r="D21">
-        <v>6.129089514773895</v>
+        <v>6.341443881838796</v>
       </c>
       <c r="E21">
-        <v>38.61393924324226</v>
+        <v>38.57626285553613</v>
       </c>
       <c r="F21">
-        <v>16.80991808283573</v>
+        <v>15.94911668966966</v>
       </c>
       <c r="G21">
-        <v>19.58125368541189</v>
+        <v>20.31978396688249</v>
       </c>
       <c r="I21">
-        <v>3.651675714715415</v>
+        <v>3.591784801899572</v>
       </c>
       <c r="J21">
-        <v>7.632928165016632</v>
+        <v>7.38597180871302</v>
       </c>
       <c r="K21">
-        <v>11.18540031396159</v>
+        <v>10.71903277437235</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.752376258673928</v>
       </c>
       <c r="M21">
-        <v>16.00237307624656</v>
+        <v>6.394454685446187</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.06727060689005</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.34670923818948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.73553208484951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.96755948568169</v>
+        <v>17.80378772080661</v>
       </c>
       <c r="C22">
-        <v>12.5703270493611</v>
+        <v>13.00019764644451</v>
       </c>
       <c r="D22">
-        <v>6.284758707709489</v>
+        <v>6.554930653922473</v>
       </c>
       <c r="E22">
-        <v>40.17419281138505</v>
+        <v>40.12582479516782</v>
       </c>
       <c r="F22">
-        <v>17.13129987283824</v>
+        <v>16.01111113659249</v>
       </c>
       <c r="G22">
-        <v>19.99109092983989</v>
+        <v>21.97788697248907</v>
       </c>
       <c r="I22">
-        <v>3.774993746064947</v>
+        <v>3.695019187220385</v>
       </c>
       <c r="J22">
-        <v>7.605629225296083</v>
+        <v>6.98448205741262</v>
       </c>
       <c r="K22">
-        <v>11.0730368146258</v>
+        <v>10.49269255472583</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.571908059115133</v>
       </c>
       <c r="M22">
-        <v>16.48731440881174</v>
+        <v>6.356770773748488</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.54577026968355</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.40171701135204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.59206808028898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65947978377934</v>
+        <v>17.49983967868848</v>
       </c>
       <c r="C23">
-        <v>12.37228001781049</v>
+        <v>12.80382133804539</v>
       </c>
       <c r="D23">
-        <v>6.196964584669633</v>
+        <v>6.429274430525495</v>
       </c>
       <c r="E23">
-        <v>39.34597224395628</v>
+        <v>39.30387479137502</v>
       </c>
       <c r="F23">
-        <v>16.98422777533469</v>
+        <v>16.03484070572005</v>
       </c>
       <c r="G23">
-        <v>19.81598954118239</v>
+        <v>20.93333866879738</v>
       </c>
       <c r="I23">
-        <v>3.706415453996228</v>
+        <v>3.636593630947536</v>
       </c>
       <c r="J23">
-        <v>7.627442086930558</v>
+        <v>7.249935050047399</v>
       </c>
       <c r="K23">
-        <v>11.15103397915737</v>
+        <v>10.64273392133028</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.683800253290462</v>
       </c>
       <c r="M23">
-        <v>16.22461326754319</v>
+        <v>6.405869798747826</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.28875237625631</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.39074592094212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.71120047176733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.42894873541388</v>
+        <v>16.29470157560315</v>
       </c>
       <c r="C24">
-        <v>11.64583083481266</v>
+        <v>12.03604910261952</v>
       </c>
       <c r="D24">
-        <v>5.861455556328742</v>
+        <v>5.987770656899418</v>
       </c>
       <c r="E24">
-        <v>36.11448378906827</v>
+        <v>36.0918571626426</v>
       </c>
       <c r="F24">
-        <v>16.40824531479767</v>
+        <v>15.9203467143226</v>
       </c>
       <c r="G24">
-        <v>19.1224206536764</v>
+        <v>18.08909442501746</v>
       </c>
       <c r="I24">
-        <v>3.447950506209466</v>
+        <v>3.415922098944821</v>
       </c>
       <c r="J24">
-        <v>7.70801258649805</v>
+        <v>8.107977362458175</v>
       </c>
       <c r="K24">
-        <v>11.43045999878292</v>
+        <v>11.1139470430155</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.07303444183901</v>
       </c>
       <c r="M24">
-        <v>15.20114800902388</v>
+        <v>6.51745437176169</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.27497839254966</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.34374914772935</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.00769860566391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.98898176952143</v>
+        <v>14.90119826831604</v>
       </c>
       <c r="C25">
-        <v>10.82212866056685</v>
+        <v>11.06174518001033</v>
       </c>
       <c r="D25">
-        <v>5.475808926340632</v>
+        <v>5.563865738151106</v>
       </c>
       <c r="E25">
-        <v>32.41406957263163</v>
+        <v>32.40380217086214</v>
       </c>
       <c r="F25">
-        <v>15.83443681149573</v>
+        <v>15.47644576672249</v>
       </c>
       <c r="G25">
-        <v>18.46417838338699</v>
+        <v>17.35593944700991</v>
       </c>
       <c r="I25">
-        <v>3.162341578500584</v>
+        <v>3.163116706755001</v>
       </c>
       <c r="J25">
-        <v>7.81563054713564</v>
+        <v>8.265261748811211</v>
       </c>
       <c r="K25">
-        <v>11.76071432306247</v>
+        <v>11.49199072504174</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.4281808704592</v>
       </c>
       <c r="M25">
-        <v>14.0177288296491</v>
+        <v>6.586120845386621</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.07507729638031</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.34484604527038</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.09770162009908</v>
       </c>
     </row>
   </sheetData>
